--- a/biology/Médecine/Manœuvres_de_Léopold/Manœuvres_de_Léopold.xlsx
+++ b/biology/Médecine/Manœuvres_de_Léopold/Manœuvres_de_Léopold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man%C5%93uvres_de_L%C3%A9opold</t>
+          <t>Manœuvres_de_Léopold</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les manœuvres de Léopold sont quatre manœuvres classiques employées pour déterminer la position du fœtus dans l'utérus. Ces manœuvres sont utilisées à partir du 2e trimestre et deviennent plus précises après 36 semaines de gestation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les manœuvres de Léopold sont quatre manœuvres classiques employées pour déterminer la position du fœtus dans l'utérus. Ces manœuvres sont utilisées à partir du 2e trimestre et deviennent plus précises après 36 semaines de gestation.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man%C5%93uvres_de_L%C3%A9opold</t>
+          <t>Manœuvres_de_Léopold</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Léopold A : Une ou deux mains sont placées sur le fond utérin et la partie fœtale ressentie est identifiée.
 Léopold B : La surface palmaire d'une main est utilisée pour localiser le dos du fœtus tandis que l'autre main ressent les irrégularités, comme les mains et les pieds.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Man%C5%93uvres_de_L%C3%A9opold</t>
+          <t>Manœuvres_de_Léopold</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles ont été décrites par Christian Gerhard Leopold.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man%C5%93uvres_de_L%C3%A9opold</t>
+          <t>Manœuvres_de_Léopold</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Pertinence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cliniciens arrivent à déterminer la présentation du fœtus dans 85,23% des cas et sa position dans 60,31% des cas[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cliniciens arrivent à déterminer la présentation du fœtus dans 85,23% des cas et sa position dans 60,31% des cas.
 </t>
         </is>
       </c>
